--- a/LTC中央系统板GIT/code_review_form.xlsx
+++ b/LTC中央系统板GIT/code_review_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本规则" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>规则</t>
   </si>
@@ -94,13 +94,27 @@
     <t>心跳的发送对时间的准确性要求不高，不建议使用硬件定时器，可使用软件定时器代替</t>
   </si>
   <si>
+    <t>已修复，用SYSTEMTICK来定时2S（查询法实现）</t>
+  </si>
+  <si>
     <t>心跳发送时建议使用固定的帧ID，通过data来代表座椅地址，座椅应答时才使用帧ID代表座椅地址</t>
   </si>
   <si>
+    <t xml:space="preserve">已修复，通过发送一次心跳帧来确认座椅回复
+</t>
+  </si>
+  <si>
     <t>检测座椅是否在线需要添加延时，不能座椅一次没返回就马上判断掉线</t>
   </si>
   <si>
+    <t xml:space="preserve">已修复，添加了状态位来标志3次没有就默认缺席
+</t>
+  </si>
+  <si>
     <t>can_process中的这种发送策略会导致can网络瞬间占用率急剧提高，同时容易阻塞整个mcu的其他逻辑处理，应该分次发送，不能一次把全部发完</t>
+  </si>
+  <si>
+    <t>利用状态机的每个循环发一次，不确定好不</t>
   </si>
   <si>
     <t>请注意代码对齐问题</t>
@@ -157,58 +171,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,8 +246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,58 +262,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -301,109 +315,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,73 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +506,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,45 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -560,15 +559,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +582,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,151 +614,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1169,8 +1186,8 @@
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1239,82 +1256,115 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:1">
+    <row r="8" ht="27" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" ht="54" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" ht="40.5" spans="1:1">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="67.5" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" ht="54" spans="1:1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" ht="54" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>31</v>
+      <c r="A22" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
